--- a/data/state_election_results/texas_president.xlsx
+++ b/data/state_election_results/texas_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CB962A-198B-F242-975D-31DA7C12D678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A76E8-120B-8643-A2C9-DD794F4534EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="5700" windowWidth="25240" windowHeight="13940" xr2:uid="{6B109F60-FC1A-5D41-A6A7-1F5B4820E084}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>trump.votes</t>
   </si>
   <si>
@@ -811,6 +808,9 @@
   </si>
   <si>
     <t>Zavala</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -861,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,32 +1178,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DBEC23-3E2D-9340-A727-70635F11D488}">
   <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>15110</v>
@@ -1220,7 +1218,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>4943</v>
@@ -1237,7 +1235,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>25076</v>
@@ -1254,7 +1252,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>9239</v>
@@ -1271,7 +1269,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>4300</v>
@@ -1288,7 +1286,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1035</v>
@@ -1305,7 +1303,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>12039</v>
@@ -1322,7 +1320,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>11447</v>
@@ -1339,7 +1337,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>1434</v>
@@ -1356,7 +1354,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>10057</v>
@@ -1373,7 +1371,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>20516</v>
@@ -1390,7 +1388,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>1494</v>
@@ -1407,7 +1405,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>6006</v>
@@ -1424,7 +1422,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>67893</v>
@@ -1441,7 +1439,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>308618</v>
@@ -1458,7 +1456,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>5443</v>
@@ -1475,7 +1473,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>397</v>
@@ -1492,7 +1490,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>7469</v>
@@ -1509,7 +1507,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>27116</v>
@@ -1526,7 +1524,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>90433</v>
@@ -1543,7 +1541,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>47530</v>
@@ -1560,7 +1558,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>2461</v>
@@ -1577,7 +1575,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>639</v>
@@ -1594,7 +1592,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>998</v>
@@ -1611,7 +1609,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>13698</v>
@@ -1628,7 +1626,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>6743</v>
@@ -1645,7 +1643,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>18767</v>
@@ -1662,7 +1660,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>8031</v>
@@ -1679,7 +1677,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>5641</v>
@@ -1696,7 +1694,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>6012</v>
@@ -1713,7 +1711,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>49032</v>
@@ -1730,7 +1728,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>3626</v>
@@ -1747,7 +1745,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>2779</v>
@@ -1764,7 +1762,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>11033</v>
@@ -1781,7 +1779,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>1602</v>
@@ -1798,7 +1796,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>17353</v>
@@ -1815,7 +1813,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>15101</v>
@@ -1832,7 +1830,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>1943</v>
@@ -1849,7 +1847,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>5069</v>
@@ -1866,7 +1864,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>809</v>
@@ -1883,7 +1881,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>1586</v>
@@ -1900,7 +1898,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
         <v>3641</v>
@@ -1917,7 +1915,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
         <v>252318</v>
@@ -1934,7 +1932,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
         <v>1048</v>
@@ -1951,7 +1949,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>7472</v>
@@ -1968,7 +1966,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
         <v>62740</v>
@@ -1985,7 +1983,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>5177</v>
@@ -2002,7 +2000,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>1058</v>
@@ -2019,7 +2017,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>15596</v>
@@ -2036,7 +2034,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
         <v>15438</v>
@@ -2053,7 +2051,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>540</v>
@@ -2070,7 +2068,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>1247</v>
@@ -2087,7 +2085,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>1220</v>
@@ -2104,7 +2102,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>1396</v>
@@ -2121,7 +2119,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>415</v>
@@ -2138,7 +2136,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>1389</v>
@@ -2155,7 +2153,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2">
         <v>307076</v>
@@ -2172,7 +2170,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
         <v>2951</v>
@@ -2189,7 +2187,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
         <v>3294</v>
@@ -2206,7 +2204,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
         <v>2162</v>
@@ -2223,7 +2221,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>222480</v>
@@ -2240,7 +2238,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>6567</v>
@@ -2257,7 +2255,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>853</v>
@@ -2274,7 +2272,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>1384</v>
@@ -2291,7 +2289,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
         <v>1438</v>
@@ -2308,7 +2306,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>2443</v>
@@ -2325,7 +2323,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>7237</v>
@@ -2342,7 +2340,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
         <v>32697</v>
@@ -2359,7 +2357,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>893</v>
@@ -2376,7 +2374,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
         <v>56717</v>
@@ -2393,7 +2391,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
         <v>84331</v>
@@ -2410,7 +2408,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2">
         <v>13684</v>
@@ -2427,7 +2425,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
         <v>4177</v>
@@ -2444,7 +2442,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
         <v>12171</v>
@@ -2461,7 +2459,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2">
         <v>10171</v>
@@ -2478,7 +2476,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
         <v>1448</v>
@@ -2495,7 +2493,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2">
         <v>1584</v>
@@ -2512,7 +2510,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>445</v>
@@ -2529,7 +2527,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2">
         <v>157718</v>
@@ -2546,7 +2544,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
         <v>4161</v>
@@ -2563,7 +2561,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
         <v>6991</v>
@@ -2580,7 +2578,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
         <v>2823</v>
@@ -2597,7 +2595,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2">
         <v>5355</v>
@@ -2614,7 +2612,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2">
         <v>93911</v>
@@ -2631,7 +2629,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2">
         <v>1413</v>
@@ -2648,7 +2646,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
         <v>12514</v>
@@ -2665,7 +2663,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>611</v>
@@ -2682,7 +2680,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2">
         <v>3085</v>
@@ -2699,7 +2697,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2">
         <v>5627</v>
@@ -2716,7 +2714,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2">
         <v>6840</v>
@@ -2733,7 +2731,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2">
         <v>44163</v>
@@ -2750,7 +2748,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2">
         <v>32493</v>
@@ -2767,7 +2765,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2">
         <v>9432</v>
@@ -2784,7 +2782,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2">
         <v>47553</v>
@@ -2801,7 +2799,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2">
         <v>7177</v>
@@ -2818,7 +2816,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>995</v>
@@ -2835,7 +2833,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2">
         <v>3616</v>
@@ -2852,7 +2850,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2">
         <v>1849</v>
@@ -2869,7 +2867,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2">
         <v>1330</v>
@@ -2886,7 +2884,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2">
         <v>23858</v>
@@ -2903,7 +2901,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2">
         <v>700630</v>
@@ -2920,7 +2918,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2">
         <v>21466</v>
@@ -2937,7 +2935,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2">
         <v>1868</v>
@@ -2954,7 +2952,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2">
         <v>1840</v>
@@ -2971,7 +2969,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2">
         <v>47680</v>
@@ -2988,7 +2986,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2">
         <v>1486</v>
@@ -3005,7 +3003,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2">
         <v>28911</v>
@@ -3022,7 +3020,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2">
         <v>90527</v>
@@ -3039,7 +3037,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2">
         <v>11926</v>
@@ -3056,7 +3054,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2">
         <v>6536</v>
@@ -3073,7 +3071,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2">
         <v>26496</v>
@@ -3090,7 +3088,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2">
         <v>12719</v>
@@ -3107,7 +3105,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2">
         <v>7060</v>
@@ -3124,7 +3122,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2">
         <v>8054</v>
@@ -3141,7 +3139,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116">
         <v>779</v>
@@ -3158,7 +3156,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2">
         <v>29163</v>
@@ -3175,7 +3173,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2">
         <v>7681</v>
@@ -3192,7 +3190,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119">
         <v>759</v>
@@ -3209,7 +3207,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2">
         <v>3418</v>
@@ -3226,7 +3224,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2">
         <v>5231</v>
@@ -3243,7 +3241,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2">
         <v>12542</v>
@@ -3260,7 +3258,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123">
         <v>784</v>
@@ -3277,7 +3275,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2">
         <v>47570</v>
@@ -3294,7 +3292,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125">
         <v>833</v>
@@ -3311,7 +3309,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2">
         <v>7453</v>
@@ -3328,7 +3326,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2">
         <v>54628</v>
@@ -3345,7 +3343,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2">
         <v>5660</v>
@@ -3362,7 +3360,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2">
         <v>3968</v>
@@ -3379,7 +3377,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2">
         <v>37624</v>
@@ -3396,7 +3394,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2">
         <v>20083</v>
@@ -3413,7 +3411,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132">
         <v>127</v>
@@ -3430,7 +3428,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133">
         <v>411</v>
@@ -3447,7 +3445,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2">
         <v>20879</v>
@@ -3464,7 +3462,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2">
         <v>1987</v>
@@ -3481,7 +3479,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136">
         <v>151</v>
@@ -3498,7 +3496,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2">
         <v>1144</v>
@@ -3515,7 +3513,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2">
         <v>5504</v>
@@ -3532,7 +3530,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2">
         <v>1180</v>
@@ -3549,7 +3547,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2">
         <v>16760</v>
@@ -3566,7 +3564,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2">
         <v>8086</v>
@@ -3583,7 +3581,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2">
         <v>1335</v>
@@ -3600,7 +3598,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2">
         <v>8804</v>
@@ -3617,7 +3615,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2">
         <v>6255</v>
@@ -3634,7 +3632,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2">
         <v>7523</v>
@@ -3651,7 +3649,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2">
         <v>23302</v>
@@ -3668,7 +3666,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2">
         <v>6789</v>
@@ -3685,7 +3683,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2">
         <v>1205</v>
@@ -3702,7 +3700,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2">
         <v>4199</v>
@@ -3719,7 +3717,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B150" s="2">
         <v>10079</v>
@@ -3736,7 +3734,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B151">
         <v>60</v>
@@ -3753,7 +3751,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B152" s="2">
         <v>78861</v>
@@ -3770,7 +3768,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2">
         <v>1853</v>
@@ -3787,7 +3785,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2">
         <v>4169</v>
@@ -3804,7 +3802,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" s="2">
         <v>3470</v>
@@ -3821,7 +3819,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2">
         <v>1857</v>
@@ -3838,7 +3836,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157" s="2">
         <v>1991</v>
@@ -3855,7 +3853,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2">
         <v>9845</v>
@@ -3872,7 +3870,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" s="2">
         <v>6881</v>
@@ -3889,7 +3887,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2">
         <v>2904</v>
@@ -3906,7 +3904,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2">
         <v>59543</v>
@@ -3923,7 +3921,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162">
         <v>460</v>
@@ -3940,7 +3938,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B163" s="2">
         <v>15642</v>
@@ -3957,7 +3955,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B164">
         <v>823</v>
@@ -3974,7 +3972,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B165" s="2">
         <v>45624</v>
@@ -3991,7 +3989,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166" s="2">
         <v>7984</v>
@@ -4008,7 +4006,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B167" s="2">
         <v>2217</v>
@@ -4025,7 +4023,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168" s="2">
         <v>2170</v>
@@ -4042,7 +4040,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" s="2">
         <v>8615</v>
@@ -4059,7 +4057,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170" s="2">
         <v>193382</v>
@@ -4076,7 +4074,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171" s="2">
         <v>4359</v>
@@ -4093,7 +4091,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B172" s="2">
         <v>3872</v>
@@ -4110,7 +4108,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173">
         <v>604</v>
@@ -4127,7 +4125,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174" s="2">
         <v>17378</v>
@@ -4144,7 +4142,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B175" s="2">
         <v>13800</v>
@@ -4161,7 +4159,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B176" s="2">
         <v>4882</v>
@@ -4178,7 +4176,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B177" s="2">
         <v>64617</v>
@@ -4195,7 +4193,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2">
         <v>2812</v>
@@ -4212,7 +4210,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B179">
         <v>917</v>
@@ -4229,7 +4227,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2">
         <v>29186</v>
@@ -4246,7 +4244,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B181" s="2">
         <v>10179</v>
@@ -4263,7 +4261,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B182" s="2">
         <v>9326</v>
@@ -4280,7 +4278,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B183" s="2">
         <v>62045</v>
@@ -4297,7 +4295,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B184" s="2">
         <v>2135</v>
@@ -4314,7 +4312,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2">
         <v>3215</v>
@@ -4331,7 +4329,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B186" s="2">
         <v>18573</v>
@@ -4348,7 +4346,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2">
         <v>22820</v>
@@ -4365,7 +4363,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B188">
         <v>721</v>
@@ -4382,7 +4380,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2">
         <v>5155</v>
@@ -4399,7 +4397,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B190" s="2">
         <v>50796</v>
@@ -4416,7 +4414,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B191">
         <v>942</v>
@@ -4433,7 +4431,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B192" s="2">
         <v>1643</v>
@@ -4450,7 +4448,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2">
         <v>4517</v>
@@ -4467,7 +4465,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2">
         <v>2254</v>
@@ -4484,7 +4482,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2">
         <v>2210</v>
@@ -4501,7 +4499,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B196">
         <v>529</v>
@@ -4518,7 +4516,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2">
         <v>5646</v>
@@ -4535,7 +4533,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B198" s="2">
         <v>36726</v>
@@ -4552,7 +4550,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B199" s="2">
         <v>3807</v>
@@ -4569,7 +4567,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B200" s="2">
         <v>16534</v>
@@ -4586,7 +4584,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B201" s="2">
         <v>4784</v>
@@ -4603,7 +4601,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B202" s="2">
         <v>3007</v>
@@ -4620,7 +4618,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2">
         <v>10161</v>
@@ -4637,7 +4635,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B204" s="2">
         <v>16516</v>
@@ -4654,7 +4652,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B205" s="2">
         <v>2308</v>
@@ -4671,7 +4669,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B206">
         <v>940</v>
@@ -4688,7 +4686,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2">
         <v>4983</v>
@@ -4705,7 +4703,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B208" s="2">
         <v>1484</v>
@@ -4722,7 +4720,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B209" s="2">
         <v>7975</v>
@@ -4739,7 +4737,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B210">
         <v>886</v>
@@ -4756,7 +4754,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B211" s="2">
         <v>69080</v>
@@ -4773,7 +4771,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B212" s="2">
         <v>4105</v>
@@ -4790,7 +4788,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B213" s="2">
         <v>8247</v>
@@ -4807,7 +4805,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B214" s="2">
         <v>3385</v>
@@ -4824,7 +4822,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B215">
         <v>584</v>
@@ -4841,7 +4839,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B216">
         <v>615</v>
@@ -4858,7 +4856,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B217" s="2">
         <v>1222</v>
@@ -4875,7 +4873,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B218" s="2">
         <v>1845</v>
@@ -4892,7 +4890,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B219" s="2">
         <v>409741</v>
@@ -4909,7 +4907,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B220" s="2">
         <v>39547</v>
@@ -4926,7 +4924,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B221">
         <v>334</v>
@@ -4943,7 +4941,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B222" s="2">
         <v>2812</v>
@@ -4960,7 +4958,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B223">
         <v>806</v>
@@ -4977,7 +4975,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B224" s="2">
         <v>7570</v>
@@ -4994,7 +4992,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B225" s="2">
         <v>32313</v>
@@ -5011,7 +5009,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B226" s="2">
         <v>161337</v>
@@ -5028,7 +5026,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B227" s="2">
         <v>5579</v>
@@ -5045,7 +5043,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B228" s="2">
         <v>8194</v>
@@ -5062,7 +5060,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B229" s="2">
         <v>15809</v>
@@ -5079,7 +5077,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B230" s="2">
         <v>1178</v>
@@ -5096,7 +5094,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B231" s="2">
         <v>6174</v>
@@ -5113,7 +5111,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B232" s="2">
         <v>8284</v>
@@ -5130,7 +5128,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B233" s="2">
         <v>22270</v>
@@ -5147,7 +5145,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B234" s="2">
         <v>23358</v>
@@ -5164,7 +5162,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B235" s="2">
         <v>15375</v>
@@ -5181,7 +5179,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B236" s="2">
         <v>14260</v>
@@ -5198,7 +5196,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B237" s="2">
         <v>3241</v>
@@ -5215,7 +5213,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B238" s="2">
         <v>12959</v>
@@ -5232,7 +5230,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B239" s="2">
         <v>25898</v>
@@ -5249,7 +5247,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B240" s="2">
         <v>11926</v>
@@ -5266,7 +5264,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B241" s="2">
         <v>2159</v>
@@ -5283,7 +5281,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B242" s="2">
         <v>32069</v>
@@ -5300,7 +5298,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B243" s="2">
         <v>3524</v>
@@ -5317,7 +5315,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B244" s="2">
         <v>2441</v>
@@ -5334,7 +5332,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B245" s="2">
         <v>139729</v>
@@ -5351,7 +5349,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B246" s="2">
         <v>18463</v>
@@ -5368,7 +5366,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B247" s="2">
         <v>1753</v>
@@ -5385,7 +5383,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B248" s="2">
         <v>27032</v>
@@ -5402,7 +5400,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B249" s="2">
         <v>19049</v>
@@ -5419,7 +5417,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B250" s="2">
         <v>2174</v>
@@ -5436,7 +5434,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B251" s="2">
         <v>7110</v>
@@ -5453,7 +5451,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B252" s="2">
         <v>2033</v>
@@ -5470,7 +5468,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B253" s="2">
         <v>1490</v>
@@ -5487,7 +5485,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B254" s="2">
         <v>3521</v>
@@ -5504,7 +5502,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B255" s="2">
         <v>4131</v>
